--- a/biology/Botanique/Crossosomataceae/Crossosomataceae.xlsx
+++ b/biology/Botanique/Crossosomataceae/Crossosomataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Crossosomataceae est constituée de plantes dicotylédones ; elle comprend une dizaine d'espèces réparties en 3 à 4 genres.
 Ce sont des arbustes, parfois épineux, à feuilles caduques, des zones arides du sud-ouest des États-Unis et du Mexique.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Crossosoma composé des mots grecs κρόσσος / krossos, bordure,
 et σώμα / soma, corps, en référence aux arilles frangés des graines.
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[1] et la classification phylogénétique APG III (2009)[2] les situent dans l'ordre des Crossosomatales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) les situent dans l'ordre des Crossosomatales.
 </t>
         </is>
       </c>
@@ -575,19 +591,21 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (2 juin 2010)[3] et ITIS      (2 juin 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (2 juin 2010) et ITIS      (2 juin 2010) :
 Apacheria (en) C.T.Mason
 Crossosoma (en) Nutt.
 Glossopetalon (en) A.Gray
-Selon NCBI  (2 juin 2010)[5] :
+Selon NCBI  (2 juin 2010) :
 Apacheria
 Crossosoma
 Glossopetalon
 Velascoa
-Angiosperm Phylogeny Website                        (2 juin 2010)[3] parle aussi de Velascoa, l'acceptant peut-être.
-Selon DELTA Angio           (2 juin 2010)[6] :
+Angiosperm Phylogeny Website                        (2 juin 2010) parle aussi de Velascoa, l'acceptant peut-être.
+Selon DELTA Angio           (2 juin 2010) :
 Apacheria
 Crossosoma
 Forsellesia
@@ -619,9 +637,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 juin 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 juin 2010) :
 genre Apacheria
 Apacheria chiricahuensis
 genre Crossosoma
